--- a/src/main/java/com/test/testutil/MyStore.xlsx
+++ b/src/main/java/com/test/testutil/MyStore.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\eclipse-workspace\MyStore\src\main\java\com\test\testutil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989EF5E6-A6CF-4DDB-95E9-BF0F6C9B1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7105E7AA-E030-4497-A888-D2C3BACE0F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A59C3F56-2878-46E6-B7D1-6E09EE4AFC0E}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{A59C3F56-2878-46E6-B7D1-6E09EE4AFC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>First Name</t>
   </si>
@@ -90,6 +83,12 @@
   </si>
   <si>
     <t>apl@gmail.com</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>sunny+25@sunnny.com</t>
   </si>
 </sst>
 </file>
@@ -469,23 +468,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE11543-6F68-4FC6-9249-CC25714E0854}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -556,4 +555,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98ADD5F-23C8-4C1A-A5C0-E0BC2ACD0826}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>